--- a/experiment/quadratic/ex9_2_2/compare/M-Estacionario/ex9_2_2_M-Estacionario.xlsx
+++ b/experiment/quadratic/ex9_2_2/compare/M-Estacionario/ex9_2_2_M-Estacionario.xlsx
@@ -479,13 +479,13 @@
         <v>-488.71072003015274</v>
       </c>
       <c r="E2">
-        <v>0.01339722</v>
+        <v>0.016686851</v>
       </c>
       <c r="F2">
-        <v>0.02450196</v>
+        <v>0.02578729</v>
       </c>
       <c r="G2">
-        <v>0.015934837643312102</v>
+        <v>0.019986648072</v>
       </c>
       <c r="H2">
         <v>2404</v>
@@ -514,13 +514,13 @@
         <v>-488.7107200268403</v>
       </c>
       <c r="E3">
-        <v>0.00169272</v>
+        <v>0.001936025</v>
       </c>
       <c r="F3">
-        <v>0.21693267</v>
+        <v>0.02271932</v>
       </c>
       <c r="G3">
-        <v>0.0022945141502946956</v>
+        <v>0.0027599958350857778</v>
       </c>
       <c r="H3">
         <v>2843</v>
